--- a/data/landings/WC_comm_landings_spp_key_temp.xlsx
+++ b/data/landings/WC_comm_landings_spp_key_temp.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_mhw_case_studies/data/landings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC3DDAE-7112-1F47-ABF4-F506CADA4583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD7C46B-CDA6-A047-87F4-B518A40715C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="3020" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12440" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WC_comm_landings_spp_key_temp" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WC_comm_landings_spp_key_temp!$A$1:$E$372</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WC_comm_landings_spp_key_temp!$A$1:$E$394</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="665">
   <si>
     <t>mgmt_group</t>
   </si>
@@ -1910,13 +1910,121 @@
   </si>
   <si>
     <t>Miscellaneous groundfish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaska plaice                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coonstripe shrimp            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark dusky rockfish          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eels or eel-like fish       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General flounder             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General sculpin              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General snailfish            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden king crab            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenland turbot             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamchatka flounder           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light dusky rockfish         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magister armhook squid      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Pacific octopus        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern rockfish            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other skate                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacific sleeper shark       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roe (unknown species) salmon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon shark                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea cucumber                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smooth lumpsucker           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorny skate                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiteblotched skate   </t>
+  </si>
+  <si>
+    <t>Pleuronectes quadrituberculatus</t>
+  </si>
+  <si>
+    <t>Lithodes aequispinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinhardtius hippoglossoides </t>
+  </si>
+  <si>
+    <t>Atheresthes evermanni</t>
+  </si>
+  <si>
+    <t>Lamna ditropis</t>
+  </si>
+  <si>
+    <t>Somniosus pacificus</t>
+  </si>
+  <si>
+    <t>Aptocyclus ventricosus</t>
+  </si>
+  <si>
+    <t>Bathyraja maculata</t>
+  </si>
+  <si>
+    <t>Amblyraja radiata</t>
+  </si>
+  <si>
+    <t>Sebastes variabilis</t>
+  </si>
+  <si>
+    <t>Sebastes polyspinis</t>
+  </si>
+  <si>
+    <t>Enteroctopus dofleini</t>
+  </si>
+  <si>
+    <t>Sebastes ciliatus</t>
+  </si>
+  <si>
+    <t>Pandalus hypsinotus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2050,6 +2158,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2393,8 +2507,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2751,10 +2866,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E372"/>
+  <dimension ref="A1:E394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E320" sqref="E320"/>
+      <selection activeCell="E376" sqref="E376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6438,7 +6553,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>25</v>
       </c>
@@ -6455,7 +6570,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>25</v>
       </c>
@@ -6557,7 +6672,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>25</v>
       </c>
@@ -7050,7 +7165,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>327</v>
       </c>
@@ -7186,7 +7301,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>327</v>
       </c>
@@ -7203,7 +7318,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>327</v>
       </c>
@@ -7356,7 +7471,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>327</v>
       </c>
@@ -7679,7 +7794,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>327</v>
       </c>
@@ -7761,7 +7876,7 @@
         <v>26</v>
       </c>
       <c r="E294" t="s">
-        <v>327</v>
+        <v>628</v>
       </c>
     </row>
     <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -8104,7 +8219,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>449</v>
       </c>
@@ -8121,7 +8236,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>449</v>
       </c>
@@ -8138,7 +8253,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>449</v>
       </c>
@@ -8155,7 +8270,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>449</v>
       </c>
@@ -8172,7 +8287,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>449</v>
       </c>
@@ -8206,7 +8321,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>449</v>
       </c>
@@ -8223,7 +8338,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>449</v>
       </c>
@@ -9090,16 +9205,395 @@
         <v>534</v>
       </c>
     </row>
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>25</v>
+      </c>
+      <c r="B373" t="s">
+        <v>629</v>
+      </c>
+      <c r="C373" t="s">
+        <v>651</v>
+      </c>
+      <c r="D373" t="s">
+        <v>7</v>
+      </c>
+      <c r="E373" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>25</v>
+      </c>
+      <c r="B374" t="s">
+        <v>630</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D374" t="s">
+        <v>7</v>
+      </c>
+      <c r="E374" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>25</v>
+      </c>
+      <c r="B375" t="s">
+        <v>631</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D375" t="s">
+        <v>7</v>
+      </c>
+      <c r="E375" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>25</v>
+      </c>
+      <c r="B376" t="s">
+        <v>632</v>
+      </c>
+      <c r="C376" t="s">
+        <v>25</v>
+      </c>
+      <c r="D376" t="s">
+        <v>26</v>
+      </c>
+      <c r="E376" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>25</v>
+      </c>
+      <c r="B377" t="s">
+        <v>633</v>
+      </c>
+      <c r="C377" t="s">
+        <v>25</v>
+      </c>
+      <c r="D377" t="s">
+        <v>26</v>
+      </c>
+      <c r="E377" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>25</v>
+      </c>
+      <c r="B378" t="s">
+        <v>634</v>
+      </c>
+      <c r="C378" t="s">
+        <v>25</v>
+      </c>
+      <c r="D378" t="s">
+        <v>26</v>
+      </c>
+      <c r="E378" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>25</v>
+      </c>
+      <c r="B379" t="s">
+        <v>635</v>
+      </c>
+      <c r="C379" t="s">
+        <v>25</v>
+      </c>
+      <c r="D379" t="s">
+        <v>26</v>
+      </c>
+      <c r="E379" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>25</v>
+      </c>
+      <c r="B380" t="s">
+        <v>636</v>
+      </c>
+      <c r="C380" t="s">
+        <v>652</v>
+      </c>
+      <c r="D380" t="s">
+        <v>7</v>
+      </c>
+      <c r="E380" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>25</v>
+      </c>
+      <c r="B381" t="s">
+        <v>637</v>
+      </c>
+      <c r="C381" t="s">
+        <v>653</v>
+      </c>
+      <c r="D381" t="s">
+        <v>7</v>
+      </c>
+      <c r="E381" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>25</v>
+      </c>
+      <c r="B382" t="s">
+        <v>638</v>
+      </c>
+      <c r="C382" t="s">
+        <v>654</v>
+      </c>
+      <c r="D382" t="s">
+        <v>7</v>
+      </c>
+      <c r="E382" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>25</v>
+      </c>
+      <c r="B383" t="s">
+        <v>639</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D383" t="s">
+        <v>7</v>
+      </c>
+      <c r="E383" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>25</v>
+      </c>
+      <c r="B384" t="s">
+        <v>640</v>
+      </c>
+      <c r="C384" t="s">
+        <v>556</v>
+      </c>
+      <c r="D384" t="s">
+        <v>7</v>
+      </c>
+      <c r="E384" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>25</v>
+      </c>
+      <c r="B385" t="s">
+        <v>641</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D385" t="s">
+        <v>7</v>
+      </c>
+      <c r="E385" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>25</v>
+      </c>
+      <c r="B386" t="s">
+        <v>642</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D386" t="s">
+        <v>7</v>
+      </c>
+      <c r="E386" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>25</v>
+      </c>
+      <c r="B387" t="s">
+        <v>643</v>
+      </c>
+      <c r="C387" t="s">
+        <v>25</v>
+      </c>
+      <c r="D387" t="s">
+        <v>26</v>
+      </c>
+      <c r="E387" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>25</v>
+      </c>
+      <c r="B388" t="s">
+        <v>644</v>
+      </c>
+      <c r="C388" t="s">
+        <v>656</v>
+      </c>
+      <c r="D388" t="s">
+        <v>7</v>
+      </c>
+      <c r="E388" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>25</v>
+      </c>
+      <c r="B389" t="s">
+        <v>645</v>
+      </c>
+      <c r="C389" t="s">
+        <v>25</v>
+      </c>
+      <c r="D389" t="s">
+        <v>26</v>
+      </c>
+      <c r="E389" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>25</v>
+      </c>
+      <c r="B390" t="s">
+        <v>646</v>
+      </c>
+      <c r="C390" t="s">
+        <v>655</v>
+      </c>
+      <c r="D390" t="s">
+        <v>7</v>
+      </c>
+      <c r="E390" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>25</v>
+      </c>
+      <c r="B391" t="s">
+        <v>647</v>
+      </c>
+      <c r="C391" t="s">
+        <v>25</v>
+      </c>
+      <c r="D391" t="s">
+        <v>26</v>
+      </c>
+      <c r="E391" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>25</v>
+      </c>
+      <c r="B392" t="s">
+        <v>648</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D392" t="s">
+        <v>7</v>
+      </c>
+      <c r="E392" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>25</v>
+      </c>
+      <c r="B393" t="s">
+        <v>649</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+      <c r="E393" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>25</v>
+      </c>
+      <c r="B394" t="s">
+        <v>650</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D394" t="s">
+        <v>7</v>
+      </c>
+      <c r="E394" t="s">
+        <v>628</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E372" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="4">
+  <autoFilter ref="A1:E394" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Salmon"/>
+        <filter val="Black eelpout"/>
+        <filter val="Eelpout"/>
+        <filter val="Eelpouts"/>
+        <filter val="Eels or eel-like fish"/>
+        <filter val="Monkeyface prickleback (eel)"/>
+        <filter val="Spotted cusk-eel"/>
+        <filter val="Steelhead"/>
+        <filter val="Unsp. Eels"/>
+        <filter val="Wolf eel"/>
       </filters>
     </filterColumn>
-    <sortState ref="A234:E234">
-      <sortCondition ref="E1:E372"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
